--- a/environment/runtimefiles/zcadelectrotech/data/preload/xlsxtemplates/devinxlsx/nodalspecification.xlsx
+++ b/environment/runtimefiles/zcadelectrotech/data/preload/xlsxtemplates/devinxlsx/nodalspecification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\cad\preload\xlsxtemplates\devinxlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\environment\runtimefiles\zcadelectrotech\data\preload\xlsxtemplates\devinxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6145A20-B33C-4636-A281-41B2375A5953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47A1ED4-8394-4E91-823D-317569F47CF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16530" yWindow="990" windowWidth="14895" windowHeight="14895" firstSheet="2" activeTab="2" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
+    <workbookView xWindow="10935" yWindow="3705" windowWidth="19290" windowHeight="16995" firstSheet="2" activeTab="2" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
   </bookViews>
   <sheets>
     <sheet name="&lt;workbook&gt;SET" sheetId="7" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>&lt;zimportdev&gt;</t>
   </si>
@@ -176,15 +176,6 @@
     <t>EL_VL_REPORT4_1</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
     <t>Системная ячейка разрешающая копирование</t>
   </si>
   <si>
@@ -195,6 +186,24 @@
   </si>
   <si>
     <t>DEVICE_EL_VL_REPORT4_2</t>
+  </si>
+  <si>
+    <t>scale_x</t>
+  </si>
+  <si>
+    <t>scale_y</t>
+  </si>
+  <si>
+    <t>rotate</t>
+  </si>
+  <si>
+    <t>VL_Number</t>
+  </si>
+  <si>
+    <t>VL_Name</t>
+  </si>
+  <si>
+    <t>VL_Quantity</t>
   </si>
 </sst>
 </file>
@@ -692,19 +701,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1716B96F-A01E-4EBE-9361-360895827D35}">
-  <dimension ref="B4:N8"/>
+  <dimension ref="B4:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>11</v>
       </c>
@@ -714,13 +725,22 @@
       <c r="F4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>10</v>
       </c>
@@ -733,24 +753,24 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F7">
         <v>-7</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -759,31 +779,40 @@
         <f>F7-8</f>
         <v>-15</v>
       </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="str">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="str">
         <f>'&lt;importdev&gt;'!D7</f>
         <v>Position</v>
       </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" t="str">
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" t="str">
         <f>'&lt;importdev&gt;'!E7</f>
         <v>realnamedev</v>
       </c>
-      <c r="K8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8">
+      <c r="N8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8">
         <f>'&lt;importdev&gt;'!F7</f>
         <v>1</v>
       </c>
-      <c r="M8" t="s">
+      <c r="P8" t="s">
         <v>9</v>
       </c>
-      <c r="N8" t="s">
+      <c r="Q8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -825,12 +854,12 @@
         <v>25</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="str">
         <f>'&lt;importdev&gt;DEVEXPORT'!E5</f>
